--- a/Doc_atual/Matriz rastreabilidade Alterado.xlsx
+++ b/Doc_atual/Matriz rastreabilidade Alterado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzzai\Desktop\3_Semestre\OPE\Documentação atual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzzai\Desktop\OPE_Draco\Doc_atual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8F1E5FC0-4623-4CE1-8459-FF132058C5F3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9ED68193-4B63-471A-9A8E-582F7B33337C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>SSS0001</t>
   </si>
@@ -115,39 +115,6 @@
     <t>O tatuador, conhecendo o tamanho e tipo do trabalho que o cliente deseja, passa um orçamento para realizar o trabalho.</t>
   </si>
   <si>
-    <t>Grupo Draco</t>
-  </si>
-  <si>
-    <t>Nomes</t>
-  </si>
-  <si>
-    <t>RA</t>
-  </si>
-  <si>
-    <t>Daniel I Nunes</t>
-  </si>
-  <si>
-    <t>Gustavo Zaik</t>
-  </si>
-  <si>
-    <t>Ivo Santana</t>
-  </si>
-  <si>
-    <t>Jhonatan Rafael</t>
-  </si>
-  <si>
-    <t>João Carlos</t>
-  </si>
-  <si>
-    <t>Kleber Felipe</t>
-  </si>
-  <si>
-    <t>Luka Gabriel</t>
-  </si>
-  <si>
-    <t>Rafael Lima</t>
-  </si>
-  <si>
     <t>O sistema DEVE permitir ao tatuador informar preços base para tatuagens baseado na complexidade, cor e quantidade de seções</t>
   </si>
   <si>
@@ -158,6 +125,69 @@
   </si>
   <si>
     <t>O tatuador pode definir preços para cobrança do serviço incluindo faltas e atrasos.</t>
+  </si>
+  <si>
+    <t>SSS0015</t>
+  </si>
+  <si>
+    <t>SSS0016</t>
+  </si>
+  <si>
+    <t>SSS0017</t>
+  </si>
+  <si>
+    <t>SSS0018</t>
+  </si>
+  <si>
+    <t>SSS0019</t>
+  </si>
+  <si>
+    <t>SSS0020</t>
+  </si>
+  <si>
+    <t>SSS0021</t>
+  </si>
+  <si>
+    <t>SSS0022</t>
+  </si>
+  <si>
+    <t>SSS0023</t>
+  </si>
+  <si>
+    <t>SSS0024</t>
+  </si>
+  <si>
+    <t>O sistema DEVE gerar um relatório onde apresenta os lucros obtidos em um determinado período.</t>
+  </si>
+  <si>
+    <t>O sistema DEVE gerar um comprovante ao fim de cada serviço.</t>
+  </si>
+  <si>
+    <t>O sistema DEVE solicitar ao tatuador a aprovação de comentários feitos no site pelos usuários.</t>
+  </si>
+  <si>
+    <t>O sistema DEVE permitir que o usuário avalie os trabalhos realizados.</t>
+  </si>
+  <si>
+    <t>O sistema DEVE apresentar instruções de cuidados preventivos a se tomar após a tatuagem.</t>
+  </si>
+  <si>
+    <t>O sistema DEVE mostrar a localização do estúdio.</t>
+  </si>
+  <si>
+    <t>O sistema DEVE armazenar os trabalhos realizados pelo tatuador</t>
+  </si>
+  <si>
+    <t>O sistema DEVE prover um termo de responsabilidade, atestando que os clientes são maiores de 18 (dezoito) anos.</t>
+  </si>
+  <si>
+    <t>O sistema DEVE solicitar aos clientes menores de 18 (dezoito) anos a autorização dos pais ou responsáveis legais.</t>
+  </si>
+  <si>
+    <t>O sistema DEVE mostrar os trabalhos com feedback mais positivo.</t>
+  </si>
+  <si>
+    <t>O tatuador deixa orientações sobre cuidados com a tatuagem</t>
   </si>
 </sst>
 </file>
@@ -268,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -292,11 +322,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,6 +330,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -668,10 +699,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="4" t="s">
         <v>28</v>
       </c>
@@ -682,12 +713,14 @@
         <v>30</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -709,20 +742,20 @@
       <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
+      <c r="C2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -738,20 +771,20 @@
       <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="C3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -767,20 +800,20 @@
       <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -789,27 +822,27 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -825,20 +858,20 @@
       <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -854,20 +887,20 @@
       <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -883,20 +916,20 @@
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -912,20 +945,20 @@
       <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -941,18 +974,18 @@
       <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -961,27 +994,27 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -997,20 +1030,20 @@
       <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1019,27 +1052,27 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1053,22 +1086,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1077,27 +1110,27 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1106,21 +1139,27 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="13"/>
+    <row r="16" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1129,80 +1168,354 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="20" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21">
-        <v>1601604</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22">
-        <v>1700591</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="9" t="s">
+    <row r="17" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F23">
-        <v>1700756</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="10" t="s">
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F24">
-        <v>1700646</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="9" t="s">
+      <c r="B18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F25">
-        <v>1601603</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="9" t="s">
+      <c r="B19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F26">
-        <v>1520075</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="9" t="s">
+      <c r="B20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F27">
-        <v>1700706</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="9" t="s">
+      <c r="B21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F28">
-        <v>1201915</v>
-      </c>
+      <c r="B22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
